--- a/src/main/resources/file/表数据构造.xlsx
+++ b/src/main/resources/file/表数据构造.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7444\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E190D34D-B15A-4D7D-BD35-26E73DCDFBA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDEDDAC-4A32-485A-BD0D-19EBCA8E5216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F140F8E3-FD2B-46DF-B31E-4AD0706C7F66}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14780" uniqueCount="2506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14782" uniqueCount="2511">
   <si>
     <t>取件码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7965,6 +7965,25 @@
   </si>
   <si>
     <t>2020-12-28 16:47:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-12-28 16:47:00</t>
+  </si>
+  <si>
+    <t>中苑快递员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西苑快递员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北苑快递员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8332,10 +8351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55D00AD8-FB9E-42CE-9759-3767C642A803}">
-  <dimension ref="A1:C7201"/>
+  <dimension ref="A1:D7201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8343,7 +8362,7 @@
     <col min="1" max="1" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8353,8 +8372,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1392</v>
       </c>
@@ -8364,8 +8386,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1393</v>
       </c>
@@ -8376,7 +8401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1395</v>
       </c>
@@ -8387,7 +8412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1397</v>
       </c>
@@ -8398,7 +8423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1399</v>
       </c>
@@ -8409,7 +8434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>1401</v>
       </c>
@@ -8420,7 +8445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>1403</v>
       </c>
@@ -8431,7 +8456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1405</v>
       </c>
@@ -8442,7 +8467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>1407</v>
       </c>
@@ -8453,7 +8478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -8464,7 +8489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -8475,7 +8500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -8486,7 +8511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -8497,7 +8522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -8508,7 +8533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -87568,8 +87593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AD43F5-9E75-4010-AA04-9139380C8089}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -87643,7 +87668,7 @@
         <v>1392</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>2508</v>
       </c>
       <c r="I2">
         <v>12345678901</v>
@@ -87681,7 +87706,7 @@
         <v>1392</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>2508</v>
       </c>
       <c r="I3">
         <v>12345678901</v>
@@ -87716,7 +87741,7 @@
         <v>1393</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>2508</v>
       </c>
       <c r="I4">
         <v>12345678901</v>
@@ -87751,7 +87776,7 @@
         <v>1394</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>2508</v>
       </c>
       <c r="I5">
         <v>12345678901</v>
@@ -87786,7 +87811,7 @@
         <v>1396</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>2508</v>
       </c>
       <c r="I6">
         <v>12345678901</v>
@@ -87821,7 +87846,7 @@
         <v>1398</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>2508</v>
       </c>
       <c r="I7">
         <v>12345678901</v>
@@ -87856,7 +87881,7 @@
         <v>1400</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>2508</v>
       </c>
       <c r="I8">
         <v>12345678901</v>
@@ -87891,7 +87916,7 @@
         <v>1402</v>
       </c>
       <c r="H9" t="s">
-        <v>3</v>
+        <v>2508</v>
       </c>
       <c r="I9">
         <v>12345678901</v>
@@ -87926,7 +87951,7 @@
         <v>1404</v>
       </c>
       <c r="H10" t="s">
-        <v>3</v>
+        <v>2508</v>
       </c>
       <c r="I10">
         <v>12345678901</v>
@@ -87961,7 +87986,7 @@
         <v>1406</v>
       </c>
       <c r="H11" t="s">
-        <v>3</v>
+        <v>2508</v>
       </c>
       <c r="I11">
         <v>12345678901</v>
@@ -87996,7 +88021,7 @@
         <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>3</v>
+        <v>2508</v>
       </c>
       <c r="I12">
         <v>12345678901</v>
@@ -88031,7 +88056,7 @@
         <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>3</v>
+        <v>2508</v>
       </c>
       <c r="I13">
         <v>12345678901</v>
@@ -88066,7 +88091,7 @@
         <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>3</v>
+        <v>2508</v>
       </c>
       <c r="I14">
         <v>12345678901</v>
@@ -88101,7 +88126,7 @@
         <v>9</v>
       </c>
       <c r="H15" t="s">
-        <v>3</v>
+        <v>2508</v>
       </c>
       <c r="I15">
         <v>12345678901</v>
@@ -88136,7 +88161,7 @@
         <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>3</v>
+        <v>2508</v>
       </c>
       <c r="I16">
         <v>12345678901</v>
@@ -88171,7 +88196,7 @@
         <v>11</v>
       </c>
       <c r="H17" t="s">
-        <v>3</v>
+        <v>2508</v>
       </c>
       <c r="I17">
         <v>12345678901</v>
@@ -88206,7 +88231,7 @@
         <v>1392</v>
       </c>
       <c r="H18" t="s">
-        <v>4</v>
+        <v>2509</v>
       </c>
       <c r="I18">
         <v>12345678902</v>
@@ -88241,7 +88266,7 @@
         <v>1393</v>
       </c>
       <c r="H19" t="s">
-        <v>4</v>
+        <v>2509</v>
       </c>
       <c r="I19">
         <v>12345678902</v>
@@ -88276,7 +88301,7 @@
         <v>1394</v>
       </c>
       <c r="H20" t="s">
-        <v>4</v>
+        <v>2509</v>
       </c>
       <c r="I20">
         <v>12345678902</v>
@@ -88311,7 +88336,7 @@
         <v>1396</v>
       </c>
       <c r="H21" t="s">
-        <v>4</v>
+        <v>2509</v>
       </c>
       <c r="I21">
         <v>12345678902</v>
@@ -88346,7 +88371,7 @@
         <v>1398</v>
       </c>
       <c r="H22" t="s">
-        <v>4</v>
+        <v>2509</v>
       </c>
       <c r="I22">
         <v>12345678902</v>
@@ -88381,7 +88406,7 @@
         <v>1400</v>
       </c>
       <c r="H23" t="s">
-        <v>4</v>
+        <v>2509</v>
       </c>
       <c r="I23">
         <v>12345678902</v>
@@ -88416,7 +88441,7 @@
         <v>1402</v>
       </c>
       <c r="H24" t="s">
-        <v>4</v>
+        <v>2509</v>
       </c>
       <c r="I24">
         <v>12345678902</v>
@@ -88451,7 +88476,7 @@
         <v>1404</v>
       </c>
       <c r="H25" t="s">
-        <v>4</v>
+        <v>2509</v>
       </c>
       <c r="I25">
         <v>12345678902</v>
@@ -88486,7 +88511,7 @@
         <v>1406</v>
       </c>
       <c r="H26" t="s">
-        <v>4</v>
+        <v>2509</v>
       </c>
       <c r="I26">
         <v>12345678902</v>
@@ -88521,7 +88546,7 @@
         <v>6</v>
       </c>
       <c r="H27" t="s">
-        <v>4</v>
+        <v>2509</v>
       </c>
       <c r="I27">
         <v>12345678902</v>
@@ -88556,7 +88581,7 @@
         <v>7</v>
       </c>
       <c r="H28" t="s">
-        <v>4</v>
+        <v>2509</v>
       </c>
       <c r="I28">
         <v>12345678902</v>
@@ -88591,7 +88616,7 @@
         <v>8</v>
       </c>
       <c r="H29" t="s">
-        <v>4</v>
+        <v>2509</v>
       </c>
       <c r="I29">
         <v>12345678902</v>
@@ -88626,7 +88651,7 @@
         <v>9</v>
       </c>
       <c r="H30" t="s">
-        <v>4</v>
+        <v>2509</v>
       </c>
       <c r="I30">
         <v>12345678902</v>
@@ -88661,7 +88686,7 @@
         <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>4</v>
+        <v>2509</v>
       </c>
       <c r="I31">
         <v>12345678902</v>
@@ -88696,7 +88721,7 @@
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>4</v>
+        <v>2509</v>
       </c>
       <c r="I32">
         <v>12345678902</v>
@@ -88731,7 +88756,7 @@
         <v>1392</v>
       </c>
       <c r="H33" t="s">
-        <v>5</v>
+        <v>2510</v>
       </c>
       <c r="I33">
         <v>12345678903</v>
@@ -88766,7 +88791,7 @@
         <v>1393</v>
       </c>
       <c r="H34" t="s">
-        <v>5</v>
+        <v>2510</v>
       </c>
       <c r="I34">
         <v>12345678903</v>
@@ -88801,7 +88826,7 @@
         <v>1394</v>
       </c>
       <c r="H35" t="s">
-        <v>5</v>
+        <v>2510</v>
       </c>
       <c r="I35">
         <v>12345678903</v>
@@ -88836,7 +88861,7 @@
         <v>1396</v>
       </c>
       <c r="H36" t="s">
-        <v>5</v>
+        <v>2510</v>
       </c>
       <c r="I36">
         <v>12345678903</v>
@@ -88871,7 +88896,7 @@
         <v>1398</v>
       </c>
       <c r="H37" t="s">
-        <v>5</v>
+        <v>2510</v>
       </c>
       <c r="I37">
         <v>12345678903</v>
@@ -88906,7 +88931,7 @@
         <v>1400</v>
       </c>
       <c r="H38" t="s">
-        <v>5</v>
+        <v>2510</v>
       </c>
       <c r="I38">
         <v>12345678903</v>
@@ -88941,7 +88966,7 @@
         <v>1402</v>
       </c>
       <c r="H39" t="s">
-        <v>5</v>
+        <v>2510</v>
       </c>
       <c r="I39">
         <v>12345678903</v>
@@ -88976,7 +89001,7 @@
         <v>1404</v>
       </c>
       <c r="H40" t="s">
-        <v>5</v>
+        <v>2510</v>
       </c>
       <c r="I40">
         <v>12345678903</v>
@@ -89011,7 +89036,7 @@
         <v>1406</v>
       </c>
       <c r="H41" t="s">
-        <v>5</v>
+        <v>2510</v>
       </c>
       <c r="I41">
         <v>12345678903</v>
@@ -89046,7 +89071,7 @@
         <v>6</v>
       </c>
       <c r="H42" t="s">
-        <v>5</v>
+        <v>2510</v>
       </c>
       <c r="I42">
         <v>12345678903</v>

--- a/src/main/resources/file/表数据构造.xlsx
+++ b/src/main/resources/file/表数据构造.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7444\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDEDDAC-4A32-485A-BD0D-19EBCA8E5216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F5C2CC-F902-49DF-8CE1-D591206B15B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{F140F8E3-FD2B-46DF-B31E-4AD0706C7F66}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14782" uniqueCount="2511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14773" uniqueCount="2508">
   <si>
     <t>取件码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7957,24 +7957,10 @@
     <t>EA294583305CN</t>
   </si>
   <si>
-    <t>75422926359680</t>
-  </si>
-  <si>
-    <t>2020-12-28 13:19:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020-12-28 16:47:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>释放时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2020-12-28 16:47:00</t>
-  </si>
-  <si>
     <t>中苑快递员</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7984,6 +7970,10 @@
   </si>
   <si>
     <t>北苑快递员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签收人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8354,7 +8344,7 @@
   <dimension ref="A1:D7201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8373,7 +8363,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2506</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8386,9 +8376,7 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>2507</v>
-      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -87591,10 +87579,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36AD43F5-9E75-4010-AA04-9139380C8089}">
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -87607,7 +87595,7 @@
     <col min="12" max="12" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1334</v>
       </c>
@@ -87644,10 +87632,13 @@
       <c r="L1" s="1" t="s">
         <v>1344</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2503</v>
+        <v>1346</v>
       </c>
       <c r="B2" t="s">
         <v>1345</v>
@@ -87668,27 +87659,24 @@
         <v>1392</v>
       </c>
       <c r="H2" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="I2">
         <v>12345678901</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>2504</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>2505</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1346</v>
+        <v>1354</v>
       </c>
       <c r="B3" t="s">
-        <v>1345</v>
+        <v>1353</v>
       </c>
       <c r="C3" t="s">
         <v>1347</v>
@@ -87703,10 +87691,10 @@
         <v>3</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="H3" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="I3">
         <v>12345678901</v>
@@ -87715,15 +87703,15 @@
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B4" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C4" t="s">
         <v>1347</v>
@@ -87738,10 +87726,10 @@
         <v>3</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="H4" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="I4">
         <v>12345678901</v>
@@ -87750,21 +87738,21 @@
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>1355</v>
+        <v>1371</v>
       </c>
       <c r="B5" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="C5" t="s">
-        <v>1347</v>
+        <v>1351</v>
       </c>
       <c r="D5">
-        <v>13305193691</v>
+        <v>17751772590</v>
       </c>
       <c r="E5" t="s">
         <v>3</v>
@@ -87773,10 +87761,10 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="H5" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="I5">
         <v>12345678901</v>
@@ -87785,15 +87773,15 @@
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B6" t="s">
-        <v>1345</v>
+        <v>1353</v>
       </c>
       <c r="C6" t="s">
         <v>1351</v>
@@ -87808,10 +87796,10 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="H6" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="I6">
         <v>12345678901</v>
@@ -87820,15 +87808,15 @@
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B7" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C7" t="s">
         <v>1351</v>
@@ -87843,10 +87831,10 @@
         <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="H7" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="I7">
         <v>12345678901</v>
@@ -87855,21 +87843,21 @@
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B8" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="C8" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="D8">
-        <v>17751772590</v>
+        <v>17751773079</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
@@ -87878,10 +87866,10 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="H8" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="I8">
         <v>12345678901</v>
@@ -87890,15 +87878,15 @@
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B9" t="s">
-        <v>1345</v>
+        <v>1353</v>
       </c>
       <c r="C9" t="s">
         <v>1349</v>
@@ -87913,10 +87901,10 @@
         <v>3</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="H9" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="I9">
         <v>12345678901</v>
@@ -87925,15 +87913,15 @@
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B10" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C10" t="s">
         <v>1349</v>
@@ -87948,10 +87936,10 @@
         <v>3</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="H10" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="I10">
         <v>12345678901</v>
@@ -87960,21 +87948,21 @@
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B11" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="C11" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D11">
-        <v>17751773079</v>
+        <v>15305177180</v>
       </c>
       <c r="E11" t="s">
         <v>3</v>
@@ -87983,10 +87971,10 @@
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>1406</v>
+        <v>6</v>
       </c>
       <c r="H11" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="I11">
         <v>12345678901</v>
@@ -87995,15 +87983,15 @@
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B12" t="s">
-        <v>1345</v>
+        <v>1353</v>
       </c>
       <c r="C12" t="s">
         <v>1350</v>
@@ -88018,10 +88006,10 @@
         <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H12" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="I12">
         <v>12345678901</v>
@@ -88030,15 +88018,15 @@
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B13" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C13" t="s">
         <v>1350</v>
@@ -88053,10 +88041,10 @@
         <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="I13">
         <v>12345678901</v>
@@ -88065,21 +88053,21 @@
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B14" t="s">
-        <v>1352</v>
+        <v>1345</v>
       </c>
       <c r="C14" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="D14">
-        <v>15305177180</v>
+        <v>13382053583</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
@@ -88088,10 +88076,10 @@
         <v>3</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H14" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="I14">
         <v>12345678901</v>
@@ -88100,15 +88088,15 @@
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B15" t="s">
-        <v>1345</v>
+        <v>1353</v>
       </c>
       <c r="C15" t="s">
         <v>1348</v>
@@ -88123,10 +88111,10 @@
         <v>3</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="I15">
         <v>12345678901</v>
@@ -88135,15 +88123,15 @@
         <v>1</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="B16" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="C16" t="s">
         <v>1348</v>
@@ -88158,10 +88146,10 @@
         <v>3</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>2508</v>
+        <v>2504</v>
       </c>
       <c r="I16">
         <v>12345678901</v>
@@ -88170,50 +88158,50 @@
         <v>1</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>1382</v>
+        <v>2478</v>
       </c>
       <c r="B17" t="s">
-        <v>1352</v>
+        <v>1410</v>
       </c>
       <c r="C17" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D17">
-        <v>13382053583</v>
+        <v>13305193691</v>
       </c>
       <c r="E17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>11</v>
+        <v>1392</v>
       </c>
       <c r="H17" t="s">
-        <v>2508</v>
+        <v>2505</v>
       </c>
       <c r="I17">
-        <v>12345678901</v>
+        <v>12345678902</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>1370</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="B18" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="C18" t="s">
         <v>1347</v>
@@ -88228,10 +88216,10 @@
         <v>4</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="H18" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="I18">
         <v>12345678902</v>
@@ -88245,10 +88233,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="B19" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="C19" t="s">
         <v>1347</v>
@@ -88263,10 +88251,10 @@
         <v>4</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="H19" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="I19">
         <v>12345678902</v>
@@ -88275,21 +88263,21 @@
         <v>1</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="B20" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="C20" t="s">
-        <v>1347</v>
+        <v>1351</v>
       </c>
       <c r="D20">
-        <v>13305193691</v>
+        <v>17751772590</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -88298,10 +88286,10 @@
         <v>4</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="H20" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="I20">
         <v>12345678902</v>
@@ -88315,10 +88303,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="B21" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="C21" t="s">
         <v>1351</v>
@@ -88333,10 +88321,10 @@
         <v>4</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="H21" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="I21">
         <v>12345678902</v>
@@ -88350,10 +88338,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="B22" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="C22" t="s">
         <v>1351</v>
@@ -88368,10 +88356,10 @@
         <v>4</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="H22" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="I22">
         <v>12345678902</v>
@@ -88385,16 +88373,16 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="B23" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="C23" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="D23">
-        <v>17751772590</v>
+        <v>17751773079</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -88403,10 +88391,10 @@
         <v>4</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="H23" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="I23">
         <v>12345678902</v>
@@ -88420,10 +88408,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="B24" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="C24" t="s">
         <v>1349</v>
@@ -88438,10 +88426,10 @@
         <v>4</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="H24" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="I24">
         <v>12345678902</v>
@@ -88455,10 +88443,10 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="B25" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="C25" t="s">
         <v>1349</v>
@@ -88473,10 +88461,10 @@
         <v>4</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="H25" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="I25">
         <v>12345678902</v>
@@ -88490,16 +88478,16 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="B26" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="C26" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D26">
-        <v>17751773079</v>
+        <v>15305177180</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -88508,10 +88496,10 @@
         <v>4</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>1406</v>
+        <v>6</v>
       </c>
       <c r="H26" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="I26">
         <v>12345678902</v>
@@ -88525,10 +88513,10 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="B27" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="C27" t="s">
         <v>1350</v>
@@ -88543,10 +88531,10 @@
         <v>4</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H27" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="I27">
         <v>12345678902</v>
@@ -88560,10 +88548,10 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
       <c r="B28" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="C28" t="s">
         <v>1350</v>
@@ -88578,10 +88566,10 @@
         <v>4</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H28" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="I28">
         <v>12345678902</v>
@@ -88595,16 +88583,16 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="B29" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="C29" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="D29">
-        <v>15305177180</v>
+        <v>13382053583</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -88613,10 +88601,10 @@
         <v>4</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H29" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="I29">
         <v>12345678902</v>
@@ -88630,10 +88618,10 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="B30" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="C30" t="s">
         <v>1348</v>
@@ -88648,10 +88636,10 @@
         <v>4</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="I30">
         <v>12345678902</v>
@@ -88665,10 +88653,10 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="B31" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="C31" t="s">
         <v>1348</v>
@@ -88683,10 +88671,10 @@
         <v>4</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>2509</v>
+        <v>2505</v>
       </c>
       <c r="I31">
         <v>12345678902</v>
@@ -88700,45 +88688,45 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
       <c r="B32" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="C32" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="D32">
-        <v>13382053583</v>
+        <v>13305193691</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>11</v>
+        <v>1392</v>
       </c>
       <c r="H32" t="s">
-        <v>2509</v>
+        <v>2506</v>
       </c>
       <c r="I32">
-        <v>12345678902</v>
+        <v>12345678903</v>
       </c>
       <c r="J32">
         <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="B33" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C33" t="s">
         <v>1347</v>
@@ -88753,10 +88741,10 @@
         <v>5</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="H33" t="s">
-        <v>2510</v>
+        <v>2506</v>
       </c>
       <c r="I33">
         <v>12345678903</v>
@@ -88770,16 +88758,16 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="B34" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C34" t="s">
-        <v>1347</v>
+        <v>1351</v>
       </c>
       <c r="D34">
-        <v>13305193691</v>
+        <v>17751772590</v>
       </c>
       <c r="E34" t="s">
         <v>5</v>
@@ -88788,10 +88776,10 @@
         <v>5</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="H34" t="s">
-        <v>2510</v>
+        <v>2506</v>
       </c>
       <c r="I34">
         <v>12345678903</v>
@@ -88800,15 +88788,15 @@
         <v>1</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="B35" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C35" t="s">
         <v>1351</v>
@@ -88823,10 +88811,10 @@
         <v>5</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="H35" t="s">
-        <v>2510</v>
+        <v>2506</v>
       </c>
       <c r="I35">
         <v>12345678903</v>
@@ -88840,16 +88828,16 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="B36" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C36" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="D36">
-        <v>17751772590</v>
+        <v>17751773079</v>
       </c>
       <c r="E36" t="s">
         <v>5</v>
@@ -88858,10 +88846,10 @@
         <v>5</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="H36" t="s">
-        <v>2510</v>
+        <v>2506</v>
       </c>
       <c r="I36">
         <v>12345678903</v>
@@ -88875,10 +88863,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="B37" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C37" t="s">
         <v>1349</v>
@@ -88893,10 +88881,10 @@
         <v>5</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="H37" t="s">
-        <v>2510</v>
+        <v>2506</v>
       </c>
       <c r="I37">
         <v>12345678903</v>
@@ -88910,16 +88898,16 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="B38" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C38" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="D38">
-        <v>17751773079</v>
+        <v>15305177180</v>
       </c>
       <c r="E38" t="s">
         <v>5</v>
@@ -88928,10 +88916,10 @@
         <v>5</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="H38" t="s">
-        <v>2510</v>
+        <v>2506</v>
       </c>
       <c r="I38">
         <v>12345678903</v>
@@ -88945,10 +88933,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="B39" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C39" t="s">
         <v>1350</v>
@@ -88963,10 +88951,10 @@
         <v>5</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="H39" t="s">
-        <v>2510</v>
+        <v>2506</v>
       </c>
       <c r="I39">
         <v>12345678903</v>
@@ -88980,16 +88968,16 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="B40" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C40" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="D40">
-        <v>15305177180</v>
+        <v>13382053583</v>
       </c>
       <c r="E40" t="s">
         <v>5</v>
@@ -88998,10 +88986,10 @@
         <v>5</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="H40" t="s">
-        <v>2510</v>
+        <v>2506</v>
       </c>
       <c r="I40">
         <v>12345678903</v>
@@ -89015,10 +89003,10 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="B41" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C41" t="s">
         <v>1348</v>
@@ -89033,10 +89021,10 @@
         <v>5</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>1406</v>
+        <v>6</v>
       </c>
       <c r="H41" t="s">
-        <v>2510</v>
+        <v>2506</v>
       </c>
       <c r="I41">
         <v>12345678903</v>
@@ -89045,41 +89033,6 @@
         <v>1</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>2502</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1348</v>
-      </c>
-      <c r="D42">
-        <v>13382053583</v>
-      </c>
-      <c r="E42" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H42" t="s">
-        <v>2510</v>
-      </c>
-      <c r="I42">
-        <v>12345678903</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42" s="1" t="s">
         <v>1408</v>
       </c>
     </row>
